--- a/17.Aggregate Counts for NNDSS/Documents/Worksheet_2020_Aggregate_COVID-19_Data2.xlsx
+++ b/17.Aggregate Counts for NNDSS/Documents/Worksheet_2020_Aggregate_COVID-19_Data2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10410" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10410" windowHeight="10425" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -1834,6 +1834,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1876,7 +1877,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2215,28 +2215,28 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:4" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
     </row>
     <row r="5" spans="1:4" ht="104.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1" ht="94.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -2362,7 +2362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2773,7 +2773,7 @@
       <c r="D2" s="28">
         <v>4663</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="39">
         <v>335437</v>
       </c>
       <c r="G2">
@@ -2794,7 +2794,7 @@
       <c r="D3" s="28">
         <v>140</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="39">
         <v>18521</v>
       </c>
       <c r="G3">
@@ -2813,11 +2813,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2836,19 +2834,19 @@
     <col min="23" max="23" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23"/>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-    </row>
-    <row r="2" spans="1:9" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
+    </row>
+    <row r="2" spans="1:17" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="21" t="s">
         <v>42</v>
@@ -2872,7 +2870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>33</v>
       </c>
@@ -2892,13 +2890,27 @@
         <v>812</v>
       </c>
       <c r="G3" s="32">
-        <v>15923</v>
+        <v>21657</v>
       </c>
       <c r="H3" s="33">
         <v>33575</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="30">
+        <f>SUM(B3:H3)</f>
+        <v>91346</v>
+      </c>
+      <c r="O3">
+        <v>15923</v>
+      </c>
+      <c r="P3">
+        <v>5734</v>
+      </c>
+      <c r="Q3">
+        <f>SUM(O3:P3)</f>
+        <v>21657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>34</v>
       </c>
@@ -2918,25 +2930,39 @@
         <v>12</v>
       </c>
       <c r="G4" s="35">
-        <v>793</v>
+        <v>921</v>
       </c>
       <c r="H4" s="36">
         <v>930</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48" t="s">
+      <c r="L4" s="30">
+        <f>SUM(B4:H4)</f>
+        <v>3567</v>
+      </c>
+      <c r="O4">
+        <v>793</v>
+      </c>
+      <c r="P4">
+        <v>128</v>
+      </c>
+      <c r="Q4">
+        <f>SUM(O4:P4)</f>
+        <v>921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-    </row>
-    <row r="7" spans="1:9" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51"/>
+    </row>
+    <row r="7" spans="1:17" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
         <v>42</v>
       </c>
@@ -2959,7 +2985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>33</v>
       </c>
@@ -2979,13 +3005,27 @@
         <v>630</v>
       </c>
       <c r="G8" s="32">
-        <v>2760</v>
+        <v>6604</v>
       </c>
       <c r="H8" s="33">
         <v>112122</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="30">
+        <f>SUM(B8:H8)</f>
+        <v>244091</v>
+      </c>
+      <c r="O8">
+        <v>2760</v>
+      </c>
+      <c r="P8">
+        <v>3844</v>
+      </c>
+      <c r="Q8">
+        <f>SUM(O8:P8)</f>
+        <v>6604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>34</v>
       </c>
@@ -3005,26 +3045,40 @@
         <v>38</v>
       </c>
       <c r="G9" s="35">
-        <v>161</v>
+        <v>303</v>
       </c>
       <c r="H9" s="36">
         <v>5888</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="45" t="s">
+      <c r="L9" s="30">
+        <f>SUM(B9:H9)</f>
+        <v>14954</v>
+      </c>
+      <c r="O9">
+        <v>161</v>
+      </c>
+      <c r="P9">
+        <v>142</v>
+      </c>
+      <c r="Q9">
+        <f>SUM(O9:P9)</f>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>42</v>
       </c>
@@ -3050,7 +3104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>33</v>
       </c>
@@ -3064,8 +3118,12 @@
       <c r="I14" s="37">
         <v>335437</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="30">
+        <f>SUM(L3,L8)</f>
+        <v>335437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>34</v>
       </c>
@@ -3077,6 +3135,10 @@
       <c r="G15" s="35"/>
       <c r="H15" s="36"/>
       <c r="I15" s="38">
+        <v>18521</v>
+      </c>
+      <c r="L15" s="30">
+        <f>SUM(L4,L9)</f>
         <v>18521</v>
       </c>
     </row>
@@ -3750,6 +3812,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C1EB0047B917F44A9DD22EA00C4953F7" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="66ee7eecf51e07370f348c26ef7cbdb9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a400e991-e328-4909-a20b-586a3e95021a" xmlns:ns3="7cba21d4-7744-440f-8d0e-c8a210e7da3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09d45ed7f8a2aba8e86ceb88db805f0b" ns2:_="" ns3:_="">
     <xsd:import namespace="a400e991-e328-4909-a20b-586a3e95021a"/>
@@ -3926,22 +4003,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B49EC5E3-F88D-40BD-8D9E-98EDA1AD3A9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a400e991-e328-4909-a20b-586a3e95021a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7cba21d4-7744-440f-8d0e-c8a210e7da3e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A85897-AEA2-4CD1-86CE-A09F51323220}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483CE18E-96D6-4DCF-A1BE-ADD694C3BBBA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3958,29 +4045,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B49EC5E3-F88D-40BD-8D9E-98EDA1AD3A9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a400e991-e328-4909-a20b-586a3e95021a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7cba21d4-7744-440f-8d0e-c8a210e7da3e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A85897-AEA2-4CD1-86CE-A09F51323220}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>